--- a/3.Semester/Datenanalyse/12231-9003 Wie oft Internetnutzung_männlich_weiblich.xlsx
+++ b/3.Semester/Datenanalyse/12231-9003 Wie oft Internetnutzung_männlich_weiblich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Studium\3.Semester\Datenanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F55D41-5BAF-4FE3-8CF0-9EB28638337F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390A58C-BE09-454C-93D0-B71CBF2E41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A9571DE0-E607-40ED-B9E3-4FCBAF959CAF}"/>
   </bookViews>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="14">
   <si>
     <t>time</t>
   </si>
@@ -65,7 +65,7 @@
     <t>(Mehrere Elemente)</t>
   </si>
   <si>
-    <t>Mittelwert von value</t>
+    <t>Summe von value</t>
   </si>
 </sst>
 </file>
@@ -551,11 +551,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -638,7 +638,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -694,7 +694,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -750,7 +750,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -806,7 +806,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -862,7 +862,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -889,7 +889,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -916,7 +916,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -943,7 +943,7 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -970,7 +970,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -997,7 +997,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1024,7 +1024,7 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1051,7 +1051,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1078,7 +1078,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1105,7 +1105,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1132,7 +1132,7 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1159,7 +1159,7 @@
         <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1186,7 +1186,7 @@
         <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1213,7 +1213,7 @@
         <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1240,7 +1240,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1267,7 +1267,7 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1294,7 +1294,7 @@
         <c:idx val="20"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1321,7 +1321,7 @@
         <c:idx val="21"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1348,7 +1348,7 @@
         <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1375,7 +1375,7 @@
         <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1402,7 +1402,7 @@
         <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1429,7 +1429,7 @@
         <c:idx val="25"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1456,7 +1456,7 @@
         <c:idx val="26"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1483,7 +1483,7 @@
         <c:idx val="27"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1510,7 +1510,7 @@
         <c:idx val="28"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1537,7 +1537,7 @@
         <c:idx val="29"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1564,7 +1564,7 @@
         <c:idx val="30"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1591,7 +1591,7 @@
         <c:idx val="31"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1618,7 +1618,7 @@
         <c:idx val="32"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1645,7 +1645,7 @@
         <c:idx val="33"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1672,7 +1672,7 @@
         <c:idx val="34"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1699,7 +1699,7 @@
         <c:idx val="35"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1726,7 +1726,7 @@
         <c:idx val="36"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1753,7 +1753,7 @@
         <c:idx val="37"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1780,7 +1780,7 @@
         <c:idx val="38"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1807,7 +1807,7 @@
         <c:idx val="39"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1834,7 +1834,7 @@
         <c:idx val="40"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1861,7 +1861,7 @@
         <c:idx val="41"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1888,7 +1888,7 @@
         <c:idx val="42"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1915,7 +1915,7 @@
         <c:idx val="43"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1942,7 +1942,7 @@
         <c:idx val="44"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1969,7 +1969,7 @@
         <c:idx val="45"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1996,7 +1996,7 @@
         <c:idx val="46"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2023,7 +2023,7 @@
         <c:idx val="47"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2050,7 +2050,7 @@
         <c:idx val="48"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2106,7 +2106,7 @@
         <c:idx val="49"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2162,7 +2162,7 @@
         <c:idx val="50"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2189,7 +2189,7 @@
         <c:idx val="51"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2216,7 +2216,7 @@
         <c:idx val="52"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2243,7 +2243,7 @@
         <c:idx val="53"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2270,7 +2270,7 @@
         <c:idx val="54"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2297,7 +2297,7 @@
         <c:idx val="55"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2324,7 +2324,7 @@
         <c:idx val="56"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2351,7 +2351,7 @@
         <c:idx val="57"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2378,7 +2378,7 @@
         <c:idx val="58"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2405,7 +2405,7 @@
         <c:idx val="59"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2432,7 +2432,7 @@
         <c:idx val="60"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2459,7 +2459,7 @@
         <c:idx val="61"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2486,7 +2486,7 @@
         <c:idx val="62"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2513,7 +2513,7 @@
         <c:idx val="63"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2540,7 +2540,7 @@
         <c:idx val="64"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2567,7 +2567,7 @@
         <c:idx val="65"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2594,7 +2594,7 @@
         <c:idx val="66"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2621,7 +2621,7 @@
         <c:idx val="67"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2648,7 +2648,7 @@
         <c:idx val="68"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent6"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2675,35 +2675,655 @@
         <c:idx val="69"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="70"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="71"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="72"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="73"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="74"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="75"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="76"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="77"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="78"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="79"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="80"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="81"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="82"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="83"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="84"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="85"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="86"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2714,56 +3334,107 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>männlich</c:v>
+                  <c:v>Jeden Tag oder fast jeden Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$5:$A$8</c:f>
+              <c:f>Tabelle1!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Jeden Tag oder fast jeden Tag</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mindestens einmal im Monat oder seltener</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mindestens einmal in der Woche</c:v>
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$B$8</c:f>
+              <c:f>Tabelle1!$B$5:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.5</c:v>
+                  <c:v>88.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-47D6-429F-AF2A-FE136F8DB49D}"/>
@@ -2779,59 +3450,226 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>weiblich</c:v>
+                  <c:v>Mindestens einmal im Monat oder seltener</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$5:$A$8</c:f>
+              <c:f>Tabelle1!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Jeden Tag oder fast jeden Tag</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mindestens einmal im Monat oder seltener</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mindestens einmal in der Woche</c:v>
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$5:$C$8</c:f>
+              <c:f>Tabelle1!$C$5:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>81.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-47D6-429F-AF2A-FE136F8DB49D}"/>
+              <c16:uniqueId val="{0000000C-A1AD-4729-B93D-DA41575A10E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mindestens einmal in der Woche</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$5:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-A1AD-4729-B93D-DA41575A10E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2843,11 +3681,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1669654768"/>
         <c:axId val="1669645648"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1669654768"/>
         <c:scaling>
@@ -3055,13 +3892,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3601,16 +4435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3676,7 +4510,97 @@
       </sharedItems>
     </cacheField>
     <cacheField name="value" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4" maxValue="33593"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4" maxValue="33593" count="89">
+        <n v="19.8"/>
+        <n v="5.6"/>
+        <n v="75"/>
+        <n v="17"/>
+        <n v="7"/>
+        <n v="6.4"/>
+        <n v="15"/>
+        <n v="6"/>
+        <n v="10.3"/>
+        <n v="85"/>
+        <n v="78"/>
+        <n v="72.2"/>
+        <n v="15.5"/>
+        <n v="18"/>
+        <n v="84"/>
+        <n v="6.9"/>
+        <n v="79"/>
+        <n v="83.6"/>
+        <n v="10.1"/>
+        <n v="83"/>
+        <n v="76.3"/>
+        <n v="11"/>
+        <n v="15.3"/>
+        <n v="4"/>
+        <n v="13"/>
+        <n v="17.3"/>
+        <n v="25.3"/>
+        <n v="16"/>
+        <n v="76"/>
+        <n v="72"/>
+        <n v="66.599999999999994"/>
+        <n v="70.3"/>
+        <n v="20.6"/>
+        <n v="63.6"/>
+        <n v="19"/>
+        <n v="8"/>
+        <n v="23.3"/>
+        <n v="81"/>
+        <n v="78.900000000000006"/>
+        <n v="12"/>
+        <n v="82"/>
+        <n v="9.1"/>
+        <n v="5"/>
+        <n v="4.4000000000000004"/>
+        <n v="28040"/>
+        <n v="9445"/>
+        <n v="25696"/>
+        <n v="10021"/>
+        <n v="28672"/>
+        <n v="8788"/>
+        <n v="26315"/>
+        <n v="9275"/>
+        <n v="26861"/>
+        <n v="9902"/>
+        <n v="29308"/>
+        <n v="27068"/>
+        <n v="9332"/>
+        <n v="10142"/>
+        <n v="29702"/>
+        <n v="9424"/>
+        <n v="27911"/>
+        <n v="10285"/>
+        <n v="30206"/>
+        <n v="9519"/>
+        <n v="30122"/>
+        <n v="9147"/>
+        <n v="28026"/>
+        <n v="9850"/>
+        <n v="28127"/>
+        <n v="9703"/>
+        <n v="30190"/>
+        <n v="8976"/>
+        <n v="30699"/>
+        <n v="9518"/>
+        <n v="28802"/>
+        <n v="10215"/>
+        <n v="31235"/>
+        <n v="11180"/>
+        <n v="32197"/>
+        <n v="10162"/>
+        <n v="31761"/>
+        <n v="10962"/>
+        <n v="32528"/>
+        <n v="9971"/>
+        <n v="32319"/>
+        <n v="11005"/>
+        <n v="33593"/>
+        <n v="10103"/>
+        <m/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3693,711 +4617,711 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="19.8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="5.6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="75"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
     <x v="2"/>
-    <n v="6.4"/>
-  </r>
-  <r>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="10.3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="85"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="78"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="72.2"/>
-  </r>
-  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
     <x v="2"/>
-    <n v="15.5"/>
-  </r>
-  <r>
+    <x v="0"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="18"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="84"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="6"/>
+    <x v="1"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
     <x v="2"/>
-    <n v="6.9"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="79"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="83.6"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="10.1"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="78"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="83"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="76.3"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="11"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="15.3"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="83"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="15"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="13"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="17.3"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="25.3"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="16"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="76"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="72"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="11"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="66.599999999999994"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="70.3"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="13"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="4"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="4"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="20.6"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="63.6"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="19"/>
+    <x v="34"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="8"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="23.3"/>
+    <x v="36"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="81"/>
+    <x v="37"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="13"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="4"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="78.900000000000006"/>
+    <x v="38"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="7"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="12"/>
+    <x v="39"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="15"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="79"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="11"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="8"/>
+    <x v="35"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="78"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="82"/>
+    <x v="40"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="4"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
     <x v="2"/>
-    <n v="9.1"/>
+    <x v="41"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="5"/>
+    <x v="42"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
     <x v="0"/>
-    <n v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
     <x v="1"/>
-    <n v="4.4000000000000004"/>
+    <x v="43"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="85"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="28040"/>
+    <x v="44"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9445"/>
+    <x v="45"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="25696"/>
+    <x v="46"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="10021"/>
+    <x v="47"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="28672"/>
+    <x v="48"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="8788"/>
+    <x v="49"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="26315"/>
+    <x v="50"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="9275"/>
+    <x v="51"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="26861"/>
+    <x v="52"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="9902"/>
+    <x v="53"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="29308"/>
+    <x v="54"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="27068"/>
+    <x v="55"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9332"/>
+    <x v="56"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="10142"/>
+    <x v="57"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="29702"/>
+    <x v="58"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9424"/>
+    <x v="59"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="27911"/>
+    <x v="60"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="10285"/>
+    <x v="61"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="30206"/>
+    <x v="62"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9519"/>
+    <x v="63"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="30122"/>
+    <x v="64"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9147"/>
+    <x v="65"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="28026"/>
+    <x v="66"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="9850"/>
+    <x v="67"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="28127"/>
+    <x v="68"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="9703"/>
+    <x v="69"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="30190"/>
+    <x v="70"/>
   </r>
   <r>
     <x v="6"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="8976"/>
+    <x v="71"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="30699"/>
+    <x v="72"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9518"/>
+    <x v="73"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="28802"/>
+    <x v="74"/>
   </r>
   <r>
     <x v="7"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="10215"/>
+    <x v="75"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="31235"/>
+    <x v="76"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="11180"/>
+    <x v="77"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="32197"/>
+    <x v="78"/>
   </r>
   <r>
     <x v="8"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="10162"/>
+    <x v="79"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="31761"/>
+    <x v="80"/>
   </r>
   <r>
     <x v="9"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="10962"/>
+    <x v="81"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="32528"/>
+    <x v="82"/>
   </r>
   <r>
     <x v="9"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="9971"/>
+    <x v="83"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="32319"/>
+    <x v="84"/>
   </r>
   <r>
     <x v="10"/>
     <x v="1"/>
     <x v="3"/>
-    <n v="11005"/>
+    <x v="85"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="33593"/>
+    <x v="86"/>
   </r>
   <r>
     <x v="10"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="10103"/>
+    <x v="87"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
     <x v="3"/>
-    <m/>
+    <x v="88"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
     <x v="3"/>
-    <m/>
+    <x v="88"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
     <x v="3"/>
-    <m/>
+    <x v="88"/>
   </r>
   <r>
     <x v="11"/>
     <x v="2"/>
     <x v="3"/>
-    <m/>
+    <x v="88"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF65A2FC-A92C-4490-BEDD-A3F24959A4B9}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:C8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF65A2FC-A92C-4490-BEDD-A3F24959A4B9}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item h="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -4405,7 +5329,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="4">
         <item x="1"/>
         <item x="2"/>
@@ -4413,12 +5337,105 @@
         <item h="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="90">
+        <item x="23"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="4"/>
+        <item x="35"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="12"/>
+        <item x="27"/>
+        <item x="3"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="0"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="28"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="16"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="49"/>
+        <item x="71"/>
+        <item x="65"/>
+        <item x="51"/>
+        <item x="56"/>
+        <item x="59"/>
+        <item x="45"/>
+        <item x="73"/>
+        <item x="63"/>
+        <item x="69"/>
+        <item x="67"/>
+        <item x="53"/>
+        <item x="83"/>
+        <item x="47"/>
+        <item x="87"/>
+        <item x="57"/>
+        <item x="79"/>
+        <item x="75"/>
+        <item x="61"/>
+        <item x="81"/>
+        <item x="85"/>
+        <item x="77"/>
+        <item x="46"/>
+        <item x="50"/>
+        <item x="52"/>
+        <item x="55"/>
+        <item x="60"/>
+        <item x="66"/>
+        <item x="44"/>
+        <item x="68"/>
+        <item x="48"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="58"/>
+        <item x="64"/>
+        <item x="70"/>
+        <item x="62"/>
+        <item x="72"/>
+        <item x="76"/>
+        <item x="80"/>
+        <item x="78"/>
+        <item x="84"/>
+        <item x="82"/>
+        <item x="86"/>
+        <item x="88"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -4428,41 +5445,203 @@
     <i>
       <x v="2"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="2"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Mittelwert von value" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Summe von value" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="70">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="16">
+    <chartFormat chart="0" format="71" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="72" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="73" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="74" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="75" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="76" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="77" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="78" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="79" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="80" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="81" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="82" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="83" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="84" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4474,7 +5653,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="85" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4486,995 +5665,14 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="86" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="35" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="42" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="43" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="44" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="45" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="46" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="48" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="50" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="51" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="52" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="53" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="54" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="55" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="56" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="57" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="58" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="59" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="60" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="61" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="62" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="63" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="64" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="65" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="66" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="67" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="68" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="69" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -5809,24 +6007,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81487EE8-F1CC-4D93-B998-8E0594AF235D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
@@ -5845,75 +6040,202 @@
     <col min="36" max="45" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>15.5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D5" s="3">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="3">
+        <v>88.3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>157.19999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="3">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="3">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3">
+        <v>86.399999999999991</v>
+      </c>
+      <c r="D8" s="3">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="3">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="3">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C10" s="3">
+        <v>93.3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="3">
+        <v>74.3</v>
+      </c>
+      <c r="C11" s="3">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D11" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="3">
+        <v>86.9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="3">
+        <v>161</v>
+      </c>
+      <c r="C14" s="3">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>94.1</v>
+      </c>
+      <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>16.166666666666668</v>
-      </c>
-      <c r="C8" s="1">
-        <v>32.300000000000004</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>769.8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>699.2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>727.40000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/3.Semester/Datenanalyse/12231-9003 Wie oft Internetnutzung_männlich_weiblich.xlsx
+++ b/3.Semester/Datenanalyse/12231-9003 Wie oft Internetnutzung_männlich_weiblich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Studium\3.Semester\Datenanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390A58C-BE09-454C-93D0-B71CBF2E41C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E05DFF0-416C-4C8A-9DD9-E7EB609DE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A9571DE0-E607-40ED-B9E3-4FCBAF959CAF}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -65,7 +65,7 @@
     <t>(Mehrere Elemente)</t>
   </si>
   <si>
-    <t>Summe von value</t>
+    <t>Mittelwert von value</t>
   </si>
 </sst>
 </file>
@@ -3318,12 +3318,53 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3399,37 +3440,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12.6</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.3</c:v>
+                  <c:v>44.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.299999999999997</c:v>
+                  <c:v>19.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.3</c:v>
+                  <c:v>37.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.9</c:v>
+                  <c:v>43.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,37 +3556,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>81.400000000000006</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.4</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>86.399999999999991</c:v>
+                  <c:v>43.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.3</c:v>
+                  <c:v>46.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.599999999999994</c:v>
+                  <c:v>35.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.1</c:v>
+                  <c:v>47.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3631,37 +3672,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>36.799999999999997</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>157.19999999999999</c:v>
+                  <c:v>78.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166.6</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.3</c:v>
+                  <c:v>10.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.6</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.9</c:v>
+                  <c:v>42.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>44.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5301,7 +5342,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF65A2FC-A92C-4490-BEDD-A3F24959A4B9}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF65A2FC-A92C-4490-BEDD-A3F24959A4B9}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -5491,7 +5532,7 @@
     <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von value" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Mittelwert von value" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="16">
     <chartFormat chart="0" format="71" series="1">
@@ -6010,7 +6051,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,13 +6116,13 @@
         <v>2006</v>
       </c>
       <c r="B5" s="3">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="C5" s="3">
-        <v>81.400000000000006</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="D5" s="3">
-        <v>36.799999999999997</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,13 +6130,13 @@
         <v>2007</v>
       </c>
       <c r="B6" s="3">
-        <v>88.3</v>
+        <v>44.15</v>
       </c>
       <c r="C6" s="3">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="D6" s="3">
-        <v>157.19999999999999</v>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,13 +6144,13 @@
         <v>2008</v>
       </c>
       <c r="B7" s="3">
-        <v>99</v>
+        <v>49.5</v>
       </c>
       <c r="C7" s="3">
-        <v>22.4</v>
+        <v>11.2</v>
       </c>
       <c r="D7" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,13 +6158,13 @@
         <v>2009</v>
       </c>
       <c r="B8" s="3">
-        <v>157</v>
+        <v>78.5</v>
       </c>
       <c r="C8" s="3">
-        <v>86.399999999999991</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="D8" s="3">
-        <v>166.6</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6131,13 +6172,13 @@
         <v>2010</v>
       </c>
       <c r="B9" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>87</v>
+        <v>43.5</v>
       </c>
       <c r="D9" s="3">
-        <v>21.3</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,13 +6186,13 @@
         <v>2011</v>
       </c>
       <c r="B10" s="3">
-        <v>38.299999999999997</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="C10" s="3">
-        <v>93.3</v>
+        <v>46.65</v>
       </c>
       <c r="D10" s="3">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,13 +6200,13 @@
         <v>2012</v>
       </c>
       <c r="B11" s="3">
-        <v>74.3</v>
+        <v>37.15</v>
       </c>
       <c r="C11" s="3">
-        <v>70.599999999999994</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D11" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,13 +6214,13 @@
         <v>2013</v>
       </c>
       <c r="B12" s="3">
-        <v>86.9</v>
+        <v>43.45</v>
       </c>
       <c r="C12" s="3">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="D12" s="3">
-        <v>24.6</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,13 +6228,13 @@
         <v>2014</v>
       </c>
       <c r="B13" s="3">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="C13" s="3">
-        <v>93</v>
+        <v>46.5</v>
       </c>
       <c r="D13" s="3">
-        <v>85.9</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,13 +6242,13 @@
         <v>2015</v>
       </c>
       <c r="B14" s="3">
-        <v>161</v>
+        <v>80.5</v>
       </c>
       <c r="C14" s="3">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="3">
-        <v>89</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,13 +6256,13 @@
         <v>2017</v>
       </c>
       <c r="B15" s="3">
-        <v>9.4</v>
+        <v>4.7</v>
       </c>
       <c r="C15" s="3">
-        <v>94.1</v>
+        <v>47.05</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6229,13 +6270,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="3">
-        <v>769.8</v>
+        <v>34.990909090909092</v>
       </c>
       <c r="C16" s="3">
-        <v>699.2</v>
+        <v>31.781818181818185</v>
       </c>
       <c r="D16" s="3">
-        <v>727.40000000000009</v>
+        <v>33.06363636363637</v>
       </c>
     </row>
   </sheetData>
@@ -6248,7 +6289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A970430-3E0D-4024-8886-7212D0FE6E60}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>

--- a/3.Semester/Datenanalyse/12231-9003 Wie oft Internetnutzung_männlich_weiblich.xlsx
+++ b/3.Semester/Datenanalyse/12231-9003 Wie oft Internetnutzung_männlich_weiblich.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Studium\3.Semester\Datenanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simfe\OneDrive\Desktop\Studium Aalen\Studium\3.Semester\Datenanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E05DFF0-416C-4C8A-9DD9-E7EB609DE241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D30042-AFA1-42C1-A752-21E3908EAB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A9571DE0-E607-40ED-B9E3-4FCBAF959CAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9571DE0-E607-40ED-B9E3-4FCBAF959CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -549,13 +549,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3195,11 +3194,11 @@
       <c:pivotFmt>
         <c:idx val="84"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3251,11 +3250,11 @@
       <c:pivotFmt>
         <c:idx val="85"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3307,11 +3306,11 @@
       <c:pivotFmt>
         <c:idx val="86"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3363,8 +3362,8 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3381,17 +3380,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$A$5:$A$16</c:f>
@@ -3475,7 +3471,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-47D6-429F-AF2A-FE136F8DB49D}"/>
@@ -3497,17 +3492,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$A$5:$A$16</c:f>
@@ -3591,7 +3583,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-A1AD-4729-B93D-DA41575A10E6}"/>
@@ -3613,17 +3604,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Tabelle1!$A$5:$A$16</c:f>
@@ -3707,7 +3695,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A1AD-4729-B93D-DA41575A10E6}"/>
@@ -3722,10 +3709,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1669654768"/>
         <c:axId val="1669645648"/>
-      </c:lineChart>
+      </c:areaChart>
       <c:catAx>
         <c:axId val="1669654768"/>
         <c:scaling>
@@ -3831,7 +3817,7 @@
         </c:txPr>
         <c:crossAx val="1669654768"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4476,16 +4462,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5342,7 +5328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF65A2FC-A92C-4490-BEDD-A3F24959A4B9}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF65A2FC-A92C-4490-BEDD-A3F24959A4B9}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -6051,7 +6037,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6115,13 +6101,13 @@
       <c r="A5" s="2">
         <v>2006</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>6.3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>40.700000000000003</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>18.399999999999999</v>
       </c>
     </row>
@@ -6129,13 +6115,13 @@
       <c r="A6" s="2">
         <v>2007</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>44.15</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>10.5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>78.599999999999994</v>
       </c>
     </row>
@@ -6143,13 +6129,13 @@
       <c r="A7" s="2">
         <v>2008</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>49.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>11.2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>12</v>
       </c>
     </row>
@@ -6157,13 +6143,13 @@
       <c r="A8" s="2">
         <v>2009</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>78.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>43.199999999999996</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>83.3</v>
       </c>
     </row>
@@ -6171,13 +6157,13 @@
       <c r="A9" s="2">
         <v>2010</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>43.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>10.65</v>
       </c>
     </row>
@@ -6185,13 +6171,13 @@
       <c r="A10" s="2">
         <v>2011</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>19.149999999999999</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>46.65</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>44</v>
       </c>
     </row>
@@ -6199,13 +6185,13 @@
       <c r="A11" s="2">
         <v>2012</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>37.15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>35.299999999999997</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>12</v>
       </c>
     </row>
@@ -6213,13 +6199,13 @@
       <c r="A12" s="2">
         <v>2013</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>43.45</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>13.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>12.3</v>
       </c>
     </row>
@@ -6227,13 +6213,13 @@
       <c r="A13" s="2">
         <v>2014</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>8.5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>46.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>42.95</v>
       </c>
     </row>
@@ -6241,13 +6227,13 @@
       <c r="A14" s="2">
         <v>2015</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>80.5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>11.5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>44.5</v>
       </c>
     </row>
@@ -6255,13 +6241,13 @@
       <c r="A15" s="2">
         <v>2017</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>4.7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>47.05</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>5</v>
       </c>
     </row>
@@ -6269,13 +6255,13 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>34.990909090909092</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>31.781818181818185</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>33.06363636363637</v>
       </c>
     </row>
@@ -6289,8 +6275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A970430-3E0D-4024-8886-7212D0FE6E60}">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
